--- a/docs/Kiểm thử chức năng.xlsx
+++ b/docs/Kiểm thử chức năng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn3_NguyenThiQuyen_10122312\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D5606-25BA-4880-B061-384157C73AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA1C87-19AD-4224-A3B1-816835EC987B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" tabRatio="455" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,10 @@
     <sheet name="TC_TimKiemSP" sheetId="4" r:id="rId4"/>
     <sheet name="TC_GioHang" sheetId="3" r:id="rId5"/>
     <sheet name="TC_ThanhToan" sheetId="6" r:id="rId6"/>
+    <sheet name="ChangePassword" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="260">
   <si>
     <t>Back to TestReport</t>
   </si>
@@ -89,25 +90,10 @@
     <t xml:space="preserve">Actual results (Kết quả thực tế) </t>
   </si>
   <si>
-    <t>Bỏ trống email và password</t>
-  </si>
-  <si>
-    <t>Người dùng chưa đăng nhập vào hệ thống</t>
-  </si>
-  <si>
     <t>Bỏ trống email, nhập password</t>
   </si>
   <si>
     <t>Nhập email, bỏ trống password</t>
-  </si>
-  <si>
-    <t>Nhập sai email (không có "@","."), đúng password</t>
-  </si>
-  <si>
-    <t>Nhập sai email (có khoảng trắng ở đầu), đúng password</t>
-  </si>
-  <si>
-    <t>Nhập sai cả email, password</t>
   </si>
   <si>
     <t>Nhập đúng cả email, password</t>
@@ -192,58 +178,16 @@
     <t>Hệ thống hiện thông báo "Vui lòng điền vào trường này"</t>
   </si>
   <si>
-    <t>Nhập dấu khoảng trắng " "</t>
-  </si>
-  <si>
-    <t>Hiện thông báo "Không được chỉ chứa khoảng trắng"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhập kí tự là số </t>
   </si>
   <si>
     <t>Hiện các sản phẩm chứa số 1 có trong thông tin sản phẩm</t>
   </si>
   <si>
-    <t>Nhập kí tự đặc biệt "@"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập quá 30 kí tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị thông báo không tìm thấy sản phẩm
-Khi người dùng nhập đến kí tự thứ 30 hiện thông báo không được nhập quá 30 kí tự </t>
-  </si>
-  <si>
     <t>Nhập đúng chuẩn tên sản phẩm</t>
   </si>
   <si>
     <t>Hiện ra duy nhất 1 sản phẩm có tên như thanh tìm kiếm</t>
-  </si>
-  <si>
-    <t>Nhập kí tự emoji ":))"</t>
-  </si>
-  <si>
-    <t>Hiện sản phẩm nếu có thông tin sản phẩm chứa kí tự "@"
-Hiển thị thông báo không tìm thấy sản phẩm nếu không có sản phẩm nào chứa kí tự đó và hiện thông báo không chứa các kí tự đặc biệt hay emoji</t>
-  </si>
-  <si>
-    <t>Hiện sản phẩm nếu có thông tin sản phẩm chứa kí tự ":))"
-Hiển thị thông báo không tìm thấy sản phẩm nếu không có sản phẩm nào chứa kí tự đó và hiện thông báo không chứa các kí tự đặc biệt hay emoji</t>
-  </si>
-  <si>
-    <t>Kiểm tra thanh tìm kiếm có gợi ý từ khóa khi người dùng nhập hay không.</t>
-  </si>
-  <si>
-    <t>Hiển thị các từ khóa gợi ý có chứa từ "hoa"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn trực tiếp từ khóa gợi ý </t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách sản phẩm có chứa "cushion"</t>
-  </si>
-  <si>
-    <t>Nhập toàn chữ in hoa</t>
   </si>
   <si>
     <t>Thêm sản phẩm thành công</t>
@@ -321,9 +265,6 @@
     <t>Hệ thống điều hướng tới trang thanh toán, hiển thị đầy đủ thông tin sản phẩm và thông tin người nhận</t>
   </si>
   <si>
-    <t>Nhập kí tự - ở email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mở giỏ hàng khi có sản phẩm </t>
   </si>
   <si>
@@ -407,13 +348,6 @@
   </si>
   <si>
     <t>Nhập Họ của bạn( toàn số), tên của bạn, ngày/tháng/năm sinh,email, mật khẩu, số điện thoại</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Bỏ trống Email
-B4: Bỏ trống password
-B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
     <t>B1: Truy cập vào website https://dipsoul.vn/
@@ -440,77 +374,17 @@
     <t>B1: Truy cập vào website https://dipsoul.vn/
 B2: Chọn chức năng đăng nhập
 B3: Nhập Email: ngthiquyen102@gmail.com
-B4: Nhập password: quyen123nt
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: ngthiquyen102gmail.com
 B4: Nhập password: ngthiquyen102
 B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: "  ngthiquyen102@gmail.com"
-B4: Nhập password: ngthiquyen102
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: ngthiquyen@gmail.com
-B4: Nhập password: quyenabcd123
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: ngthiquyen102@gmail.com
-B4: Nhập password: ngthiquyen102
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: ngthiquyen10-2@gmail.com
-B4: Nhập password: ngthiquyen102
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
     <t>Nhập đúng email, sai password (password &lt;6 ký tự)</t>
-  </si>
-  <si>
-    <t>Nhập đúng email, sai password (password &gt;50 ký tự)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
-Hiển thị giao diện đăng nhập
-Thông báo lỗi và yêu cầu nhập lại
-</t>
   </si>
   <si>
     <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
 Hiển thị giao diện đăng nhập
 Chuyển hướng đến trang chủ
 Cập nhật tên tài khoản </t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: abxd@gmail.com
-B4: Nhập password: ngthiquyen102
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
-Hiển thị giao diện đăng nhập
-Thông báo email chưa đăng ký 
-</t>
-  </si>
-  <si>
-    <t>Email chưa đăng ký</t>
   </si>
   <si>
     <t>Nhập email bằng chữ in hoa</t>
@@ -521,16 +395,6 @@
 B3: Nhập Email: NGTHIQUYEN102@GMAIL.COM
 B4: Nhập password: ngthiquyen102
 B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Nhấn Enter để đăng nhập</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: ngthiquyen102@gmail.com
-B4: Nhập password: ngthiquyen102
-B5: Nhấn Enter</t>
   </si>
   <si>
     <t>Đăng nhập bằng Facebook</t>
@@ -956,81 +820,9 @@
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
 B2: Click vào thanh tìm kiếm
-B3: Nhập khoảng trắng trên thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
 B3: Nhập "1" thanh tìm kiếm
 B4: Nhấn Enter hoặc biểu tượng tìm kiếm
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "@" thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "abcdefghiklmnoooaaaabcdsedght" thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập ":))" thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "hoa"
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t>Kiểm tra lỗi chính tả</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Chọn trực tiếp từ khóa hệ thống gợi ý "nến"
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "Nến bánh kem" thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "THƠM" trên thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào thanh tìm kiếm
-B3: Nhập "nến thơm" trên thanh tìm kiếm
-B4: Nhấn Enter hoặc biểu tượng tìm kiếm
-</t>
-  </si>
-  <si>
-    <t>Hiện các sản phẩm chứa từ "THƠM" có trong thông tin sản phẩm không phân biệt chữ hoa/chữ thường</t>
-  </si>
-  <si>
-    <t>Tự động chỉnh sửa chính tả cho đúng, đưa ra danh sách sản phẩm chứa từ khóa</t>
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
@@ -1458,19 +1250,6 @@
     <t>Hệ thống đặt hàng thành công</t>
   </si>
   <si>
-    <t>Tick giao đến địa chỉ khác</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Tick vào giao đến địa chỉ khác
-</t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thêm các trường thông tin người nhận khác</t>
-  </si>
-  <si>
     <t>Kiểm tra cập nhật giá tiền khi đổi đơn vị vận chuyển</t>
   </si>
   <si>
@@ -1487,19 +1266,6 @@
   </si>
   <si>
     <t>Hệ thống yêu cầu chọn hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>Chọn hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Điền các trường thông tin
-B4: Chọn đơn vị vận chuyển
-B5: Chọn hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thông tin chuyển khoản cho chủ trang web</t>
   </si>
   <si>
     <t>NHập mã giảm giá không hợp lệ</t>
@@ -1530,6 +1296,112 @@
 B11: Thay đổi hình thức thanh toán
 B12: Nhấn "Thanh toán ngay" 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
+Hiển thị giao diện đăng nhập
+Thông báo lỗi và yêu cầu nhập lại. "Thông tin đăng nhập không chính xác."
+</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://dipsoul.vn/
+B2: Chọn chức năng đăng nhập
+B3: Nhập Email: ngthiquyen@gmail
+B4: Nhập password: ngthiquyen102
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
+Hiển thị giao diện đăng nhập
+Thông báo lỗi và yêu cầu nhập lại 'thông tin đăng nhập không chính xác"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập sai email </t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Nến thơm Dipsoul Candle
+Hiển thị giao diện đăng nhập
+Thông báo lỗi và yêu cầu nhập lại
+ "Please fill out this field."</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Nến thơm Dipsoul Candle
+Hiển thị giao diện đăng nhập
+Chuyển hướng đến trang chủ
+Cập nhật tên tài khoản "Nguyễn Thị Quyên"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào thanh tìm kiếm
+B3: Nhập "#!@" thanh tìm kiếm
+B4: Nhấn Enter hoặc biểu tượng tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>Nhập kí tự đặc biệt "#!@"</t>
+  </si>
+  <si>
+    <t>Set quà tặng nến thơm nắng mai</t>
+  </si>
+  <si>
+    <t>Trả ra 1 loạt danh sách không chứa ký tự</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Hiện sản phẩm nếu có thông tin sản phẩm chứa kí tự "@"
+Hiển thị thông báo không tìm thấy sản phẩm nếu không có sản phẩm nào chứa kí tự đó "Không tìm thấy bất kỳ kết quả nào với từ khóa trên"</t>
+  </si>
+  <si>
+    <t>Nhập đúng chuẩn tên sản phẩm có phân biệt hoa thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào thanh tìm kiếm
+B3: Nhập "set quà tặng nến thơm nắng mai" thanh tìm kiếm
+B4: Nhấn Enter hoặc biểu tượng tìm kiếm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào thanh tìm kiếm
+B3: Nhập "Set quà tặng nến thơm Nắng Mai" trên thanh tìm kiếm
+B4: Nhấn Enter hoặc biểu tượng tìm kiếm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập từ khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào thanh tìm kiếm
+B3: Nhập "nến mèo" trên thanh tìm kiếm
+B4: Nhấn Enter hoặc biểu tượng tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm chứa từ khóa "nến mèo"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm không chứa từ khóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào thanh tìm kiếm
+B3: Nhập "quà" trên thanh tìm kiếm
+B4: Nhấn Enter hoặc biểu tượng tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các sản phẩm chứa từ khóa "quà"</t>
   </si>
 </sst>
 </file>
@@ -2079,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -2107,8 +1979,8 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G19,"Pass")</f>
-        <v>Pass: 0</v>
+        <f>"Pass: "&amp;COUNTIF(G5:G12,"Pass")</f>
+        <v>Pass: 8</v>
       </c>
       <c r="E1" s="8" t="e">
         <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
@@ -2128,7 +2000,7 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G19,"Fail")</f>
+        <f>"Fail: "&amp;COUNTIF(G5:G12,"Fail")</f>
         <v>Fail: 0</v>
       </c>
       <c r="E2" s="8" t="e">
@@ -2149,12 +2021,12 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$974)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$967)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$974))</f>
-        <v>Number of cases: 15</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$967))</f>
+        <v>Number of cases: 8</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2195,110 +2067,139 @@
         <f>"[DangNhap - " &amp; TEXT(ROW(A1), "00") &amp; "]"</f>
         <v>[DangNhap - 01]</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
+      <c r="B5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="25"/>
+        <v>237</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="50">
       <c r="A6" s="24" t="str">
         <f>"[DangNhap - " &amp; TEXT(ROW(A2), "00") &amp; "]"</f>
         <v>[DangNhap - 02]</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
+      <c r="B6" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="50.25" customHeight="1">
+        <v>240</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="50">
       <c r="A7" s="24" t="str">
-        <f t="shared" ref="A7:A22" si="0">"[DangNhap - " &amp; TEXT(ROW(A3), "00") &amp; "]"</f>
+        <f t="shared" ref="A7:A12" si="0">"[DangNhap - " &amp; TEXT(ROW(A3), "00") &amp; "]"</f>
         <v>[DangNhap - 03]</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="25"/>
+        <v>243</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="50">
+      <c r="I7" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="50.25" customHeight="1">
       <c r="A8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>[DangNhap - 04]</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>127</v>
+      <c r="B8" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
+        <v>243</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="50">
       <c r="A9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>[DangNhap - 05]</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>128</v>
+      <c r="B9" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="50">
       <c r="A10" s="24" t="str">
@@ -2306,43 +2207,51 @@
         <v>[DangNhap - 06]</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="50">
+      <c r="I10" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="40">
       <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>[DangNhap - 07]</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
+      <c r="B11" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="50">
       <c r="A12" s="24" t="str">
@@ -2350,177 +2259,37 @@
         <v>[DangNhap - 08]</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="50">
-      <c r="A13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 09]</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="50">
-      <c r="A14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 10]</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="50">
-      <c r="A15" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 11]</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="50">
-      <c r="A16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 12]</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="50">
-      <c r="A17" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 13]</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="40">
-      <c r="A18" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 14]</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="50">
-      <c r="A19" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 15]</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="24"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G15:G19" xr:uid="{1B57CD1F-9A78-40BC-81BE-C5AF03C09E7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G12" xr:uid="{1B57CD1F-9A78-40BC-81BE-C5AF03C09E7D}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2541,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF83A7-E3CF-42CA-A136-CBA0E91CF224}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -2568,7 +2337,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
         <f>"Pass: "&amp;COUNTIF(G5:G27,"Pass")</f>
-        <v>Pass: 0</v>
+        <v>Pass: 23</v>
       </c>
       <c r="E1" s="8" t="e">
         <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
@@ -2579,7 +2348,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="20">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2635,10 +2404,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -2656,41 +2425,49 @@
         <v>[DangKy - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="90">
       <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A28" si="0">"[DangKy - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <f t="shared" ref="A6:A27" si="0">"[DangKy - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[DangKy - 02]</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="23"/>
     </row>
@@ -2700,19 +2477,23 @@
         <v>[DangKy - 03]</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H7" s="20"/>
       <c r="I7" s="23"/>
     </row>
@@ -2722,19 +2503,23 @@
         <v>[DangKy - 04]</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="23"/>
     </row>
@@ -2744,19 +2529,23 @@
         <v>[DangKy - 05]</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="23"/>
     </row>
@@ -2766,19 +2555,23 @@
         <v>[DangKy - 06]</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="21"/>
     </row>
@@ -2788,19 +2581,23 @@
         <v>[DangKy - 07]</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="21"/>
     </row>
@@ -2810,19 +2607,23 @@
         <v>[DangKy - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="21"/>
     </row>
@@ -2832,19 +2633,23 @@
         <v>[DangKy - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="21"/>
     </row>
@@ -2854,19 +2659,23 @@
         <v>[DangKy - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="21"/>
     </row>
@@ -2876,19 +2685,23 @@
         <v>[DangKy - 11]</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="21"/>
     </row>
@@ -2898,19 +2711,23 @@
         <v>[DangKy - 12]</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="21"/>
     </row>
@@ -2920,19 +2737,23 @@
         <v>[DangKy - 13]</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="21"/>
     </row>
@@ -2942,19 +2763,23 @@
         <v>[DangKy - 14]</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="21"/>
     </row>
@@ -2964,19 +2789,23 @@
         <v>[DangKy - 15]</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="21"/>
     </row>
@@ -2986,19 +2815,23 @@
         <v>[DangKy - 16]</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="21"/>
     </row>
@@ -3008,19 +2841,23 @@
         <v>[DangKy - 17]</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
@@ -3030,19 +2867,23 @@
         <v>[DangKy - 18]</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="90">
       <c r="A23" s="15" t="str">
@@ -3050,19 +2891,23 @@
         <v>[DangKy - 19]</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="90">
       <c r="A24" s="15" t="str">
@@ -3070,19 +2915,23 @@
         <v>[DangKy - 20]</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="90">
       <c r="A25" s="15" t="str">
@@ -3090,19 +2939,23 @@
         <v>[DangKy - 21]</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="90">
       <c r="A26" s="15" t="str">
@@ -3110,19 +2963,23 @@
         <v>[DangKy - 22]</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="90">
       <c r="A27" s="15" t="str">
@@ -3130,19 +2987,23 @@
         <v>[DangKy - 23]</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15"/>
@@ -3160,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F9B4F-9D2C-4078-9120-0C2F531DE59C}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3254,10 +3115,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -3275,16 +3136,16 @@
         <v>[XemSP - 01]</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -3293,20 +3154,20 @@
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A27" si="0">"[XemSP - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <f t="shared" ref="A6:A14" si="0">"[XemSP - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[XemSP - 02]</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="15"/>
@@ -3319,16 +3180,16 @@
         <v>[XemSP - 03]</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="15"/>
@@ -3341,16 +3202,16 @@
         <v>[XemSP - 04]</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -3363,16 +3224,16 @@
         <v>[XemSP - 05]</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -3385,16 +3246,16 @@
         <v>[XemSP - 06]</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15"/>
@@ -3407,16 +3268,16 @@
         <v>[XemSP - 07]</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="15"/>
@@ -3429,16 +3290,16 @@
         <v>[XemSP - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
@@ -3451,16 +3312,16 @@
         <v>[XemSP - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -3473,16 +3334,16 @@
         <v>[XemSP - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="10"/>
@@ -3639,10 +3500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC450ACE-C4E2-45B8-904E-143A070037AD}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -3667,8 +3528,8 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G23,"Pass")</f>
-        <v>Pass: 0</v>
+        <f>"Pass: "&amp;COUNTIF(G5:G17,"Pass")</f>
+        <v>Pass: 5</v>
       </c>
       <c r="E1" s="8" t="e">
         <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
@@ -3677,7 +3538,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="20">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -3686,8 +3547,8 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G23,"Fail")</f>
-        <v>Fail: 0</v>
+        <f>"Fail: "&amp;COUNTIF(G5:G17,"Fail")</f>
+        <v>Fail: 2</v>
       </c>
       <c r="E2" s="8" t="e">
         <f>"N/A: "&amp;COUNTIF(#REF!,"N/A")</f>
@@ -3705,12 +3566,12 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$973)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$967)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$973))</f>
-        <v>Number of cases: 11</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$967))</f>
+        <v>Number of cases: 7</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -3750,65 +3611,82 @@
         <v>[TimKiemSP - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="50">
+      <c r="I5" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A13" si="0">"[TimKiemSP - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <f t="shared" ref="A6:A11" si="0">"[TimKiemSP - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[TimKiemSP - 02]</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="50.25" customHeight="1">
+      <c r="I6" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="50">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[TimKiemSP - 03]</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>49</v>
+      <c r="B7" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
+        <v>255</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="A8" s="15" t="str">
@@ -3816,37 +3694,53 @@
         <v>[TimKiemSP - 04]</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="60">
+        <v>250</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="50">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[TimKiemSP - 05]</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="19"/>
+        <v>259</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="50">
       <c r="A10" s="15" t="str">
@@ -3854,16 +3748,25 @@
         <v>[TimKiemSP - 06]</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>55</v>
+      <c r="F10" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -3872,89 +3775,38 @@
         <v>[TimKiemSP - 07]</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50">
-      <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 08]</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="50">
-      <c r="A13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 09]</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50">
-      <c r="A14" s="15" t="str">
-        <f>"[TimKiemSP - " &amp; TEXT(ROW(A10),"00") &amp; "]"</f>
-        <v>[TimKiemSP - 10]</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50">
-      <c r="A15" s="15" t="str">
-        <f>"[TimKiemSP - " &amp; TEXT(ROW(A11),"00") &amp; "]"</f>
-        <v>[TimKiemSP - 11]</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>218</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="17"/>
@@ -3962,27 +3814,9 @@
     <row r="17" spans="4:4">
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="17"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G23" xr:uid="{10B3385E-4436-4BD0-BDA7-E6AD439E7BF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G17" xr:uid="{10B3385E-4436-4BD0-BDA7-E6AD439E7BF3}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3999,7 +3833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CE64E-D35A-4759-BDC4-0DC458C9D526}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4035,7 +3869,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="20">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4108,16 +3942,16 @@
         <v>[GioHang - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -4130,16 +3964,16 @@
         <v>[GioHang - 02]</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -4152,16 +3986,16 @@
         <v>[GioHang - 03]</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -4174,16 +4008,16 @@
         <v>[GioHang - 04]</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -4196,16 +4030,16 @@
         <v>[GioHang - 05]</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -4218,16 +4052,16 @@
         <v>[GioHang - 06]</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -4240,16 +4074,16 @@
         <v>[GioHang - 07]</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -4262,16 +4096,16 @@
         <v>[GioHang - 08]</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
@@ -4280,16 +4114,16 @@
         <v>[GioHang - 09]</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
@@ -4298,16 +4132,16 @@
         <v>[GioHang - 10]</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50">
@@ -4316,16 +4150,16 @@
         <v>[GioHang - 11]</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50">
@@ -4334,16 +4168,16 @@
         <v>[GioHang - 12]</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -4352,16 +4186,16 @@
         <v>[GioHang - 13]</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60">
@@ -4370,16 +4204,16 @@
         <v>[GioHang - 14]</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60">
@@ -4388,16 +4222,16 @@
         <v>[GioHang - 15]</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
@@ -4406,16 +4240,16 @@
         <v>[GioHang - 16]</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
@@ -4424,16 +4258,16 @@
         <v>[GioHang - 17]</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
@@ -4442,16 +4276,16 @@
         <v>[GioHang - 18]</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80">
@@ -4460,16 +4294,16 @@
         <v>[GioHang - 19]</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80">
@@ -4478,16 +4312,16 @@
         <v>[GioHang - 20]</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="90">
@@ -4496,16 +4330,16 @@
         <v>[GioHang - 21]</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4519,10 +4353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED25E9-734E-4BB9-B6DD-ADDDAEBE5EA0}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4535,7 +4369,7 @@
     <col min="6" max="6" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4378,7 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G25,"Pass")</f>
+        <f>"Pass: "&amp;COUNTIF(G5:G24,"Pass")</f>
         <v>Pass: 0</v>
       </c>
       <c r="E1" s="8" t="e">
@@ -4556,7 +4390,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="20">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4565,7 +4399,7 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G25,"Fail")</f>
+        <f>"Fail: "&amp;COUNTIF(G5:G24,"Fail")</f>
         <v>Fail: 0</v>
       </c>
       <c r="E2" s="8" t="e">
@@ -4586,12 +4420,12 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$981)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$979)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$981))</f>
-        <v>Number of cases: 23</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$979))</f>
+        <v>Number of cases: 21</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -4633,16 +4467,16 @@
         <v>[ThanhToan - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -4651,20 +4485,20 @@
     </row>
     <row r="6" spans="1:9" ht="160">
       <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A27" si="0">"[ThanhToan - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <f t="shared" ref="A6:A22" si="0">"[ThanhToan - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[ThanhToan - 02]</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -4677,16 +4511,16 @@
         <v>[ThanhToan - 03]</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -4699,16 +4533,16 @@
         <v>[ThanhToan - 04]</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -4721,16 +4555,16 @@
         <v>[ThanhToan - 05]</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -4743,16 +4577,16 @@
         <v>[ThanhToan - 06]</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -4765,16 +4599,16 @@
         <v>[ThanhToan - 07]</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -4787,16 +4621,16 @@
         <v>[ThanhToan - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -4809,16 +4643,16 @@
         <v>[ThanhToan - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -4831,16 +4665,16 @@
         <v>[ThanhToan - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -4853,16 +4687,16 @@
         <v>[ThanhToan - 11]</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4875,16 +4709,16 @@
         <v>[ThanhToan - 12]</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -4897,16 +4731,16 @@
         <v>[ThanhToan - 13]</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -4919,16 +4753,16 @@
         <v>[ThanhToan - 14]</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -4941,16 +4775,16 @@
         <v>[ThanhToan - 15]</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -4963,16 +4797,16 @@
         <v>[ThanhToan - 16]</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -4985,16 +4819,16 @@
         <v>[ThanhToan - 17]</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -5007,38 +4841,38 @@
         <v>[ThanhToan - 18]</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="50">
       <c r="A23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 19]</v>
+        <f>"[ThanhToan - " &amp; TEXT(ROW(A20),"00") &amp; "]"</f>
+        <v>[ThanhToan - 20]</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -5047,20 +4881,20 @@
     </row>
     <row r="24" spans="1:9" ht="50">
       <c r="A24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 20]</v>
+        <f>"[ThanhToan - " &amp; TEXT(ROW(A21),"00") &amp; "]"</f>
+        <v>[ThanhToan - 21]</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -5068,69 +4902,29 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="50">
-      <c r="A25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 21]</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>277</v>
+      <c r="A25" s="15" t="e">
+        <f>"[ThanhToan - " &amp; TEXT(ROW(#REF!),"00") &amp; "]"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 22]</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="50">
-      <c r="A27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 23]</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G25" xr:uid="{1E2945B9-EE03-427B-9C5D-4195D8E35D95}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G24" xr:uid="{1E2945B9-EE03-427B-9C5D-4195D8E35D95}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5141,4 +4935,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8945F8-44BD-40EB-BEFA-56F152ECC625}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Kiểm thử chức năng.xlsx
+++ b/docs/Kiểm thử chức năng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA1C87-19AD-4224-A3B1-816835EC987B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0103A9-E7B9-407A-9DCF-FCBC07AF2CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" tabRatio="455" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" tabRatio="455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_DangNhap" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="270">
   <si>
     <t>Back to TestReport</t>
   </si>
@@ -278,70 +278,13 @@
 Hiển thị thông báo "Thêm giỏ hàng thành công"</t>
   </si>
   <si>
-    <t xml:space="preserve">Hệ thống thông báo lỗi và yêu cầu nhập thông tin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt hàng thất bại - Trống Họ tên </t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Trống Số điện thoại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hệ thống thông báo lỗi ràng buộc phải là 10 số và số đầu là số 0 và yêu cầu nhập lại thông tin </t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Trống Email</t>
-  </si>
-  <si>
-    <t>Hệ thống thông báo yêu cầu nhập thông tin email, con trỏ chuột nhấp nháy ở trường email</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Email không đúng định dạng thiếu @</t>
-  </si>
-  <si>
-    <t>Hệ thống thông báo lỗi định dạng, yêu cầu nhập lại thông tin email, con trỏ chuột nhấp nháy ở trường email</t>
-  </si>
-  <si>
-    <t>Hệ thống thông báo yêu cầu chọn, nhập địa chỉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hệ thống ghi nhận đơn hàng, hiển thị thông báo đặt hàng thành công </t>
-  </si>
-  <si>
     <t>Đặt hàng thất bại - Sai định dạng số điện thoại chứa chữ</t>
   </si>
   <si>
     <t>Đặt hàng thất bại - Số điện thoại lớn hơn 10 số</t>
   </si>
   <si>
-    <t>Hệ thống thông báo lỗi ràng buộc phải là 10 số và số đầu là số 0 và yêu cầu nhập lại thông tin ở ngay dưới trường thông tin đó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt hàng thành công - Số điện thoại 10 số </t>
-  </si>
-  <si>
     <t>Đặt hàng thất bại - Số điện thoại nhỏ hơn 10 số</t>
-  </si>
-  <si>
-    <t>Đặt hàng thành công - Đầy đủ thông tin, đúng định dạng</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Email không đúng định dạng thiếu phần sau @</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Bỏ qua địa chỉ nhận hàng Tỉnh</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Bỏ qua địa chỉ nhận hàng Huyện</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Bỏ qua địa chỉ nhận hàng Xã</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Bỏ qua địa chỉ cụ thể</t>
-  </si>
-  <si>
-    <t>Hệ thống thông báo yêu nhập địa chỉ, không được để trống</t>
   </si>
   <si>
     <t>Nhập đầy đủ và đúng thông tin của các trường</t>
@@ -985,319 +928,6 @@
     <t xml:space="preserve">Hệ thống nhận yêu cầu, hiển thị tick </t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Bỏ qua trường Họ tên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Bỏ qua trường Số điện thoại 
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 1nchd
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 039867251234
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398672512
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 039867
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Bỏ qua Email
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyengmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Bỏ qua chọn địa chỉ Tỉnh
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay"  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên"
-B8: Bỏ qua Chọn Huyện
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên"
-B8: Chọn Huyện "Khoaí Châu"
-B9: Bỏ qua chọn xã
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên"
-B8: Chọn Huyện "Khoaí Châu"
-B9: Chọn Xã "Đại Tập"
-B10: Bỏ qua nhập địa chỉ cụ thể
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Email không đúng định dạng thiếu gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Email không đúng định dạng thiếu com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t>Bỏ qua Địa chỉ (tùy chọn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Nhập Họ tên: Nguyễn Thị Quyên 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: 
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
-    <t>Hệ thống đặt hàng thành công</t>
-  </si>
-  <si>
-    <t>Kiểm tra cập nhật giá tiền khi đổi đơn vị vận chuyển</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Điền các trường thông tin
-B4: Chọn đơn vị vận chuyển</t>
-  </si>
-  <si>
-    <t>Hệ thống tự động cập nhật tổng tiền sau khi người nhập chọn đơn vị vận chuyển</t>
-  </si>
-  <si>
-    <t>Không chọn hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>Hệ thống yêu cầu chọn hình thức thanh toán</t>
-  </si>
-  <si>
-    <t>NHập mã giảm giá không hợp lệ</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Điền các trường thông tin
-B4: Nhập mã giảm giá "SALE"</t>
-  </si>
-  <si>
-    <t>Hệ thống báo mã giảm giá không hợp lệ</t>
-  </si>
-  <si>
-    <t>Đặt hàng thất bại - Họ tên chứa số</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Ấn thanh toán
-B4: Họ tên: Nguyễn Quyên 1 
-B5: Nhập Số điện thoại: 0398037540
-B6: Nhập Email: ngthiquyen@gmail.com
-B7: Chọn địa chỉ Tỉnh "Hưng Yên
-B8: Chọn Huyện "Khoái Châu"
-B9: Chọn Xã "Đại Tập" 
-B10: Nhập địa chỉ cụ thể "Thôn Ninh Tập"
-B11: Thay đổi hình thức thanh toán
-B12: Nhấn "Thanh toán ngay" 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thị trang chủ Nến thơm Dipsoul Candle
 Hiển thị giao diện đăng nhập
 Thông báo lỗi và yêu cầu nhập lại. "Thông tin đăng nhập không chính xác."
@@ -1402,6 +1032,424 @@
   </si>
   <si>
     <t>Hiển thị danh sách các sản phẩm chứa từ khóa "quà"</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập vào trang web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen
+B5: Nhập mật khẩu mới: ngthiquyen1
+B6: Nhập xác nhânj lại mật khẩu: ngthiquyen1
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin. "Mật khẩu không đúng"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: ngthiquyen1
+B6: Nhập xác nhânj lại mật khẩu: ngthiquyen
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin. "Xác nhận mật khẩu không khớp"</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại -   Bỏ trống mật khẩu cũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: 
+B5: Nhập mật khẩu mới: ngthiquyen2
+B6: Nhập xác nhânj lại mật khẩu: ngthiquyen2
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại -   Bỏ trống mật khẩu mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: 
+B6: Nhập xác nhânj lại mật khẩu: ngthiquyen3
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin. "Please fill out this field."</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại - Bỏ trống xác nhận lại mật khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: ngthiquyen
+B6: Nhập xác nhânj lại mật khẩu: 
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại -  mật khẩu &lt;6 ký tự, xác nhận lại sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: ad1
+B6: Nhập xác nhânj lại mật khẩu: ad
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin. "Mật khẩu mới dài từ 6 đến 50 ký tự | Xác nhận mật khẩu không khớp."</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại - Mật khẩu &lt;6 ký tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: as
+B6: Nhập xác nhânj lại mật khẩu: as
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin. "Mật khẩu mới dài từ 6 đến 50 ký tự"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Đăng nhập tài khoản
+B3: Chọn Đổi mật khẩu
+B4: Nhập mật khẩu cũ: ngthiquyen102
+B5: Nhập mật khẩu mới: ngthiquyen
+B6: Nhập xác nhânj lại mật khẩu: ngthiquyen
+B7: Ấn "Đặt lại mật khẩu"
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo đổi mật khẩu thành công. "Đổi password thành công"</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt hàng thành công </t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo đặt hàng thành công "Cảm ơn bạn đã đặt hàng"</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Họ tên trống</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin "Vui lòng nhập họ tên"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: 
+B6: Nhập Số điện thoại: 0912345679
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Trống email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B13: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin "Vui lòng nhập email"</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Trống số điện thoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại:
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B13: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email:  
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345680
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B13: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi và yêu cầu nhập thông tin "Vui lòng nhập số điện thoại"</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Sai định dạng số điện thoại chứa '@'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: '0123423@676
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi "Số điện thoại không hợp lệ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 01a4235677
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 014235678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Trống Tỉnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh 
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Trống huyện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện 
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo yêu cầu chọn thông tin "Vui lòng chọn huyện"</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo yêu cầu chọn thông tin "Vui lòng chọn xã"</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Trống xã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Không chọn hình thức thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán ""
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá:
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi "Bạn cần chọn phương thức thanh toán"</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại - Nhập mã giảm giá sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3: Ấn thanh toán
+B4: Email: ngthiquyen@gmail.com 
+B5: Nhập họ tên: Nguyễn Thị Quyên
+B6: Nhập Số điện thoại: 0912345678
+B7: Chọn địa chỉ Tỉnh "Bà Rịa - Vũng Tàu"
+B8: Chọn Huyện "Long Điền"
+B9: Chọn Xã "An Nhứt" 
+B10: Chonn phương thức vận chuyển "Ship Nhanh - Nịna Van"
+B11: Thay đổi hình thức thanh toán "Chuyển khoản"
+B12: Nhập ghi chú: Giao giờ hành chính
+B12: Nhập mã giảm giá: SALE
+B12: Nhấn "Thanh toán ngay" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi "Mã khuyến mãi không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Không hiện thông báo</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo yêu cầu chọn thông tin "Vui lòng chọn Tỉnh thành"</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn tỉnh thành</t>
+  </si>
+  <si>
+    <t>Khu vực không hỗ trợ vận chuyển</t>
+  </si>
+  <si>
+    <t>Thông báo đặt hàng thành công "Cảm ơn bạn đã đặt hàng"</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1515,17 +1563,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1622,7 +1659,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1953,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -2068,26 +2105,26 @@
         <v>[DangNhap - 01]</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50">
@@ -2096,26 +2133,26 @@
         <v>[DangNhap - 02]</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50">
@@ -2130,20 +2167,20 @@
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.25" customHeight="1">
@@ -2158,20 +2195,20 @@
         <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50">
@@ -2180,25 +2217,25 @@
         <v>[DangNhap - 05]</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50">
@@ -2213,20 +2250,20 @@
         <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="25" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40">
@@ -2235,22 +2272,22 @@
         <v>[DangNhap - 07]</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50">
@@ -2259,22 +2296,22 @@
         <v>[DangNhap - 08]</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2310,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF83A7-E3CF-42CA-A136-CBA0E91CF224}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2431,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>21</v>
@@ -2440,7 +2477,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="22"/>
@@ -2457,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>21</v>
@@ -2466,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="23"/>
@@ -2483,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>21</v>
@@ -2492,7 +2529,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="23"/>
@@ -2509,7 +2546,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>21</v>
@@ -2518,7 +2555,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="23"/>
@@ -2535,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>21</v>
@@ -2544,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="23"/>
@@ -2561,7 +2598,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>21</v>
@@ -2570,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="21"/>
@@ -2587,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>21</v>
@@ -2596,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="21"/>
@@ -2613,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>21</v>
@@ -2622,7 +2659,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="21"/>
@@ -2639,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>21</v>
@@ -2648,7 +2685,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="21"/>
@@ -2665,7 +2702,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>21</v>
@@ -2674,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="21"/>
@@ -2691,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>21</v>
@@ -2700,7 +2737,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="21"/>
@@ -2717,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>21</v>
@@ -2726,7 +2763,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="21"/>
@@ -2737,13 +2774,13 @@
         <v>[DangKy - 13]</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>21</v>
@@ -2752,7 +2789,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="21"/>
@@ -2769,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>21</v>
@@ -2778,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="21"/>
@@ -2795,7 +2832,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>21</v>
@@ -2804,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="21"/>
@@ -2821,7 +2858,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>21</v>
@@ -2830,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="21"/>
@@ -2841,13 +2878,13 @@
         <v>[DangKy - 17]</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>32</v>
@@ -2856,7 +2893,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -2867,22 +2904,22 @@
         <v>[DangKy - 18]</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90">
@@ -2891,13 +2928,13 @@
         <v>[DangKy - 19]</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>21</v>
@@ -2906,7 +2943,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="90">
@@ -2915,13 +2952,13 @@
         <v>[DangKy - 20]</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>21</v>
@@ -2930,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90">
@@ -2939,13 +2976,13 @@
         <v>[DangKy - 21]</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>21</v>
@@ -2954,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -2963,13 +3000,13 @@
         <v>[DangKy - 22]</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>32</v>
@@ -2978,7 +3015,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="90">
@@ -2987,22 +3024,22 @@
         <v>[DangKy - 23]</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3021,7 +3058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F9B4F-9D2C-4078-9120-0C2F531DE59C}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3136,16 +3173,16 @@
         <v>[XemSP - 01]</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -3158,16 +3195,16 @@
         <v>[XemSP - 02]</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="15"/>
@@ -3180,16 +3217,16 @@
         <v>[XemSP - 03]</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="15"/>
@@ -3202,16 +3239,16 @@
         <v>[XemSP - 04]</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -3224,16 +3261,16 @@
         <v>[XemSP - 05]</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -3246,16 +3283,16 @@
         <v>[XemSP - 06]</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15"/>
@@ -3268,16 +3305,16 @@
         <v>[XemSP - 07]</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="15"/>
@@ -3290,16 +3327,16 @@
         <v>[XemSP - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
@@ -3312,16 +3349,16 @@
         <v>[XemSP - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -3334,16 +3371,16 @@
         <v>[XemSP - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="10"/>
@@ -3502,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC450ACE-C4E2-45B8-904E-143A070037AD}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3617,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -3626,11 +3663,11 @@
         <v>41</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
@@ -3645,7 +3682,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>43</v>
@@ -3654,11 +3691,11 @@
         <v>43</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50">
@@ -3667,25 +3704,25 @@
         <v>[TimKiemSP - 03]</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
@@ -3694,25 +3731,25 @@
         <v>[TimKiemSP - 04]</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50">
@@ -3721,25 +3758,25 @@
         <v>[TimKiemSP - 05]</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50">
@@ -3754,19 +3791,19 @@
         <v>40</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -3775,25 +3812,25 @@
         <v>[TimKiemSP - 07]</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3948,7 +3985,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>48</v>
@@ -3970,10 +4007,10 @@
         <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -3992,7 +4029,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>51</v>
@@ -4014,7 +4051,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>53</v>
@@ -4036,7 +4073,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>55</v>
@@ -4052,13 +4089,13 @@
         <v>[GioHang - 06]</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>56</v>
@@ -4080,7 +4117,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>58</v>
@@ -4102,7 +4139,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>60</v>
@@ -4120,7 +4157,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>62</v>
@@ -4138,7 +4175,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>64</v>
@@ -4156,7 +4193,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>68</v>
@@ -4174,7 +4211,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>69</v>
@@ -4192,7 +4229,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>71</v>
@@ -4210,7 +4247,7 @@
         <v>67</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>73</v>
@@ -4222,16 +4259,16 @@
         <v>[GioHang - 15]</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
@@ -4240,16 +4277,16 @@
         <v>[GioHang - 16]</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
@@ -4258,16 +4295,16 @@
         <v>[GioHang - 17]</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
@@ -4276,16 +4313,16 @@
         <v>[GioHang - 18]</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80">
@@ -4294,16 +4331,16 @@
         <v>[GioHang - 19]</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80">
@@ -4312,16 +4349,16 @@
         <v>[GioHang - 20]</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="90">
@@ -4330,16 +4367,16 @@
         <v>[GioHang - 21]</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4353,10 +4390,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED25E9-734E-4BB9-B6DD-ADDDAEBE5EA0}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A5" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4367,6 +4404,7 @@
     <col min="4" max="4" width="25.36328125" customWidth="1"/>
     <col min="5" max="5" width="23.6328125" customWidth="1"/>
     <col min="6" max="6" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4378,8 +4416,8 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G24,"Pass")</f>
-        <v>Pass: 0</v>
+        <f>"Pass: "&amp;COUNTIF(G5:G17,"Pass")</f>
+        <v>Pass: 8</v>
       </c>
       <c r="E1" s="8" t="e">
         <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
@@ -4399,8 +4437,8 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G24,"Fail")</f>
-        <v>Fail: 0</v>
+        <f>"Fail: "&amp;COUNTIF(G5:G17,"Fail")</f>
+        <v>Fail: 5</v>
       </c>
       <c r="E2" s="8" t="e">
         <f>"N/A: "&amp;COUNTIF(#REF!,"N/A")</f>
@@ -4420,12 +4458,12 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$979)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$971)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$979))</f>
-        <v>Number of cases: 21</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$971))</f>
+        <v>Number of cases: 13</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -4461,473 +4499,374 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="160">
+    <row r="5" spans="1:9" ht="210">
       <c r="A5" s="15" t="str">
         <f>"[ThanhToan - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[ThanhToan - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="160">
+      <c r="I5" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="210">
       <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A22" si="0">"[ThanhToan - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <f t="shared" ref="A6:A17" si="0">"[ThanhToan - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[ThanhToan - 02]</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+        <v>235</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="160">
+      <c r="I6" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="210">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 03]</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="160">
+      <c r="I7" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="200">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 04]</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="170">
+      <c r="I8" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="210">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 05]</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="150">
+      <c r="I9" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 06]</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="160">
+      <c r="I10" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="210">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 07]</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="140">
+      <c r="I11" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="200">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="160">
+      <c r="I12" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="200">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="150">
+      <c r="I13" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="210">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+        <v>254</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="150">
+      <c r="I14" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="210">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 11]</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="150">
+      <c r="I15" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="210">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 12]</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+        <v>260</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="160">
+      <c r="I16" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="210">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ThanhToan - 13]</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+        <v>263</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="160">
-      <c r="A18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 14]</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="150">
-      <c r="A19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 15]</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="160">
-      <c r="A20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 16]</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="160">
-      <c r="A21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 17]</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="150">
-      <c r="A22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 18]</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="50">
-      <c r="A23" s="15" t="str">
-        <f>"[ThanhToan - " &amp; TEXT(ROW(A20),"00") &amp; "]"</f>
-        <v>[ThanhToan - 20]</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="50">
-      <c r="A24" s="15" t="str">
-        <f>"[ThanhToan - " &amp; TEXT(ROW(A21),"00") &amp; "]"</f>
-        <v>[ThanhToan - 21]</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="50">
-      <c r="A25" s="15" t="e">
-        <f>"[ThanhToan - " &amp; TEXT(ROW(#REF!),"00") &amp; "]"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G24" xr:uid="{1E2945B9-EE03-427B-9C5D-4195D8E35D95}">
-      <formula1>"Pass, Fail"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{13203F50-51BC-469D-931A-67E9B3DB067D}"/>
     <hyperlink ref="B1" location="BugList!A1" display="To Buglist" xr:uid="{07606E3B-9B4E-48B7-85EB-5B0C6571987F}"/>
@@ -4939,12 +4878,348 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8945F8-44BD-40EB-BEFA-56F152ECC625}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="str">
+        <f>"Pass: "&amp;COUNTIF(G5:G12,"Pass")</f>
+        <v>Pass: 8</v>
+      </c>
+      <c r="E1" s="8" t="e">
+        <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="20">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="7" t="str">
+        <f>"Fail: "&amp;COUNTIF(G5:G12,"Fail")</f>
+        <v>Fail: 0</v>
+      </c>
+      <c r="E2" s="8" t="e">
+        <f>"N/A: "&amp;COUNTIF(#REF!,"N/A")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="20">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7" t="e">
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$966)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="13" t="str">
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$966))</f>
+        <v>Number of cases: 8</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="40">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80">
+      <c r="A5" s="15" t="str">
+        <f>"[ChangePassword - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
+        <v>[ChangePassword - 01]</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80">
+      <c r="A6" s="15" t="str">
+        <f t="shared" ref="A6:A12" si="0">"[ChangePassword - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <v>[ChangePassword - 02]</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="80">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 03]</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="80">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 04]</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="80">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 05]</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="80">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 06]</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="80">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 07]</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="80">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 08]</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G12" xr:uid="{870F62C3-8437-41A1-AC27-E84040378AFE}">
+      <formula1>"Pass, Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{3A83100B-798C-4B81-98A1-E2D16214FFDC}"/>
+    <hyperlink ref="B1" location="BugList!A1" display="To Buglist" xr:uid="{6F980733-6528-424B-B45A-75D8EB680571}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Kiểm thử chức năng.xlsx
+++ b/docs/Kiểm thử chức năng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0103A9-E7B9-407A-9DCF-FCBC07AF2CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1EF23-BFDE-4074-A249-E2FA9AB9705A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" tabRatio="455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" tabRatio="455" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_DangNhap" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="257">
   <si>
     <t>Back to TestReport</t>
   </si>
@@ -81,13 +81,7 @@
     <t>Test Case Procedure                                                      (Các bước kiểm thử)</t>
   </si>
   <si>
-    <t>Expected Output (Kết quả mong muốn)</t>
-  </si>
-  <si>
     <t>Status (Trạng thái)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual results (Kết quả thực tế) </t>
   </si>
   <si>
     <t>Bỏ trống email, nhập password</t>
@@ -200,30 +194,6 @@
 Hiện thông báo "Thêm vào giỏ hàng thành công"</t>
   </si>
   <si>
-    <t>Thêm sản phẩm thất bại - mua nhiều quá số lượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra giỏ hàng hiện đúng tổng tiền </t>
-  </si>
-  <si>
-    <t>Giỏ hàng hiện thông tin sản phẩm và tổng tiền đúng</t>
-  </si>
-  <si>
-    <t>Kiểm tra giỏ hàng hiện đúng tổng tiền khi thêm số lượng</t>
-  </si>
-  <si>
-    <t>Giỏ hàng thêm số lượng, hiện thông tin sản phẩm và tổng tiền đúng</t>
-  </si>
-  <si>
-    <t>Kiểm tra giỏ hàng hiện đúng tổng tiền khi sử dụng mã giảm giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giỏ hàng thêm mã giảm giá và tính lại tổng tiền sau khi sử dụng mã </t>
-  </si>
-  <si>
-    <t>Giỏ hàng giảm số lượng sản phẩm và cập nhật lại giá tiền</t>
-  </si>
-  <si>
     <t>Kiểm tra giỏ hàng xóa sản phẩm khỏi giỏ</t>
   </si>
   <si>
@@ -241,27 +211,12 @@
     <t>Kiểm tra trống giỏ hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">Hệ thống thông báo giỏ hàng trống, có điều hướng về trang sản phẩm </t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng thanh toán khi giỏ hàng trống</t>
-  </si>
-  <si>
-    <t>Hệ thống không hiển thị nút "Thanh toán" thông báo giỏ hàng trống, có điều hướng về trang sản phẩm</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng thanh toán khi giỏ hàng có sản phẩm</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng thanh toán khi giỏ hàng có sản phẩm - chưa đăng nhập tài khoản</t>
-  </si>
-  <si>
     <t>Người dùng truy cập vào trang web, chưa đăng nhập tài khoản</t>
   </si>
   <si>
-    <t>Hệ thống yêu cầu đăng nhập và điều hướng tới trang đăng nhập</t>
-  </si>
-  <si>
     <t>Hệ thống điều hướng tới trang thanh toán, hiển thị đầy đủ thông tin sản phẩm và thông tin người nhận</t>
   </si>
   <si>
@@ -269,13 +224,6 @@
   </si>
   <si>
     <t>Hệ thống hiển thị đầy đủ thông tin sản phẩm, số lượng, thành tiền, phân loại</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm - chưa đăng nhập</t>
-  </si>
-  <si>
-    <t>Hệ thống vẫn cho sản phẩm vào giỏ hàng
-Hiển thị thông báo "Thêm giỏ hàng thành công"</t>
   </si>
   <si>
     <t>Đặt hàng thất bại - Sai định dạng số điện thoại chứa chữ</t>
@@ -769,34 +717,7 @@
   </si>
   <si>
     <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào sản phẩm muốn thêm
-B3: Chọn phân loại "236ml"
-B4: Để nguyên số lượng "1"
-B4: Nhấn "Thêm vào giỏ hàng" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
 B2: Click vào giỏ hàng
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Nhấn "+" đến khi số lượng là "3"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Nhấn "Sử dụng mã giảm gía"
-B4: Chọn mã giảm giá "TGSF25K"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào giỏ hàng
-B3: Nhấn dấu "-" đến hiển thị số lượng "2"
 </t>
   </si>
   <si>
@@ -820,35 +741,6 @@
 B3: Chọn phân loại "236ml"
 B4: Để nguyên số lượng "1"
 B4: Nhấn "Thanh toán" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào sản phẩm muốn thêm
-B3: Chọn phân loại "236ml"
-B4: Nhấn dấu "+" đến khi số lượng "101"
-B4: Nhấn "Thêm vào giỏ hàng" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm sản phẩm vào giỏ hàng đúng theo phân loại và số lượng
-Hiện thông báo "Bạn chỉ có thể mua tối đa 100 sản phẩm này" nếu người bán yêu cầu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra giỏ hàng hiện đúng tổng tiền khi giảm số lượng sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
-B2: Click vào sản phẩm muốn thêm
-B3: Chọn phân loại "236ml"
-B4: NHập số lượng 0
-B4: Nhấn "Thêm vào giỏ hàng" 
-</t>
-  </si>
-  <si>
-    <t>NHập số 0 ở số lượng sản phẩm</t>
-  </si>
-  <si>
-    <t>Hệ thống để mặc định số 1, thông báo tối thiểu là 1</t>
   </si>
   <si>
     <t>NHập số âm ở số lượng sản phẩm</t>
@@ -862,18 +754,12 @@
 </t>
   </si>
   <si>
-    <t>Chọn ngày giao hàng hợp lệ</t>
-  </si>
-  <si>
     <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
 B2: Click vào sản phẩm muốn thêm
 B3: Chọn phân loại "236ml"
 B4: NHập số lượng -5
 B5: Mở dropdown ngày, chọn ngày tương lai
 </t>
-  </si>
-  <si>
-    <t>Hệ thống nhận đúng ngày được chọn</t>
   </si>
   <si>
     <t>Chọn ngày giao hàng là ngày quá khứ</t>
@@ -951,9 +837,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nhập sai email </t>
-  </si>
-  <si>
-    <t>Automation</t>
   </si>
   <si>
     <t>Hiển thị trang chủ Nến thơm Dipsoul Candle
@@ -1449,7 +1332,71 @@
     <t>Khu vực không hỗ trợ vận chuyển</t>
   </si>
   <si>
-    <t>Thông báo đặt hàng thành công "Cảm ơn bạn đã đặt hàng"</t>
+    <t xml:space="preserve">Test Case Description   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre -Condition             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Procedure                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Output </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi "Mã capcha không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Thêm vào giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào sản phẩm muốn thêm
+B3: Chọn phân loại 
+B4: Để nguyên số lượng "1"
+B4: Nhấn "Thêm vào giỏ hàng" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3:  số lượng "4"
+B4: Nhấn "Thêm vào giỏ hàng" 
+</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng và cập nhật số tiền đúng</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo giỏ hàng trống, có điều hướng về trang sản phẩm "Không có sản phẩm nào trong giỏ hàng của bạn"</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng (tăng)</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng (giảm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://dipsoul.vn/
+B2: Click vào giỏ hàng
+B3:  số lượng "2"
+B4: Nhấn "Thêm vào giỏ hàng" 
+</t>
+  </si>
+  <si>
+    <t>Hệ thống để mặc định số dương, số lượng 5</t>
+  </si>
+  <si>
+    <t>Hệ thống để mặc định số dương, số lượng 6</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1521,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,9 +1594,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1661,6 +1605,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1988,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -1999,15 +1949,14 @@
     <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.36328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.1796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2026,9 +1975,8 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2047,9 +1995,8 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2068,259 +2015,250 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.4" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="28.4" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="50">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="50">
       <c r="A5" s="24" t="str">
         <f>"[DangNhap - " &amp; TEXT(ROW(A1), "00") &amp; "]"</f>
         <v>[DangNhap - 01]</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>83</v>
+      <c r="B5" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50">
+        <v>159</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50">
       <c r="A6" s="24" t="str">
         <f>"[DangNhap - " &amp; TEXT(ROW(A2), "00") &amp; "]"</f>
         <v>[DangNhap - 02]</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50">
+        <v>159</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50">
       <c r="A7" s="24" t="str">
         <f t="shared" ref="A7:A12" si="0">"[DangNhap - " &amp; TEXT(ROW(A3), "00") &amp; "]"</f>
         <v>[DangNhap - 03]</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangNhap - 04]</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50">
+      <c r="A9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangNhap - 05]</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50">
+      <c r="A10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangNhap - 06]</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 04]</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50">
-      <c r="A9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 05]</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50">
-      <c r="A10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangNhap - 06]</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="40">
+        <v>159</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40">
       <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>[DangNhap - 07]</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>87</v>
+      <c r="B11" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50">
       <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>[DangNhap - 08]</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="24"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="24"/>
     </row>
   </sheetData>
@@ -2345,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF83A7-E3CF-42CA-A136-CBA0E91CF224}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -2359,12 +2297,11 @@
     <col min="4" max="4" width="40.36328125" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.1796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2383,9 +2320,8 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2404,9 +2340,8 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2425,9 +2360,8 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.4" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="28.4" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2441,608 +2375,588 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="90">
       <c r="A5" s="15" t="str">
         <f>"[DangKy - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[DangKy - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="90">
+        <v>159</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="90">
       <c r="A6" s="15" t="str">
         <f t="shared" ref="A6:A27" si="0">"[DangKy - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[DangKy - 02]</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="90">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 03]</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="90">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 04]</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="90">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 05]</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="90">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 06]</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="90">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 07]</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="90">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 08]</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="90">
+      <c r="A13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 09]</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="90">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 10]</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="90">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 11]</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="90">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 12]</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" ht="90">
+      <c r="A17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 13]</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="90">
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 14]</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" ht="90">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 15]</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" ht="90">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 16]</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="90">
+      <c r="A21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 17]</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" ht="90">
+      <c r="A22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 18]</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="90">
-      <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 03]</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="90">
-      <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 04]</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="F22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="90">
+      <c r="A23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 19]</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="90">
-      <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 05]</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="90">
-      <c r="A10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 06]</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90">
+      <c r="A24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 20]</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="90">
-      <c r="A11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 07]</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="90">
-      <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 08]</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 21]</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="90">
-      <c r="A13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 09]</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="90">
-      <c r="A14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 10]</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="E25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90">
+      <c r="A26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 22]</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="90">
-      <c r="A15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 11]</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="90">
-      <c r="A16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 12]</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="F26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[DangKy - 23]</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="90">
-      <c r="A17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 13]</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 14]</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="E27" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" ht="90">
-      <c r="A19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 15]</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="90">
-      <c r="A20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 16]</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="90">
-      <c r="A21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 17]</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="90">
-      <c r="A22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 18]</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90">
-      <c r="A23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 19]</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90">
-      <c r="A24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 20]</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="90">
-      <c r="A25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 21]</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90">
-      <c r="A26" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 22]</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="90">
-      <c r="A27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[DangKy - 23]</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>123</v>
-      </c>
       <c r="F27" s="17" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="15"/>
     </row>
   </sheetData>
@@ -3152,13 +3066,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -3173,16 +3087,16 @@
         <v>[XemSP - 01]</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
@@ -3195,16 +3109,16 @@
         <v>[XemSP - 02]</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="15"/>
@@ -3217,16 +3131,16 @@
         <v>[XemSP - 03]</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="15"/>
@@ -3239,16 +3153,16 @@
         <v>[XemSP - 04]</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -3261,16 +3175,16 @@
         <v>[XemSP - 05]</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -3283,16 +3197,16 @@
         <v>[XemSP - 06]</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15"/>
@@ -3305,16 +3219,16 @@
         <v>[XemSP - 07]</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="15"/>
@@ -3327,16 +3241,16 @@
         <v>[XemSP - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
@@ -3349,16 +3263,16 @@
         <v>[XemSP - 09]</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -3371,16 +3285,16 @@
         <v>[XemSP - 10]</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="10"/>
@@ -3537,26 +3451,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC450ACE-C4E2-45B8-904E-143A070037AD}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
   <cols>
     <col min="1" max="1" width="12.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.36328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.36328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="17.1796875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="8" max="8" width="6.54296875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3488,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -3594,7 +3507,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -3613,239 +3526,234 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="28.4" customHeight="1">
+    <row r="4" spans="1:8" ht="28.4" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="28" customFormat="1" ht="50">
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="50">
       <c r="A5" s="15" t="str">
         <f>"[TimKiemSP - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[TimKiemSP - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50.25" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.25" customHeight="1">
       <c r="A6" s="15" t="str">
         <f t="shared" ref="A6:A11" si="0">"[TimKiemSP - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[TimKiemSP - 02]</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[TimKiemSP - 03]</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[TimKiemSP - 04]</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[TimKiemSP - 05]</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[TimKiemSP - 06]</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50">
-      <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 03]</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
-      <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 04]</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50">
-      <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 05]</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50">
-      <c r="A10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[TimKiemSP - 06]</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60">
+        <v>159</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[TimKiemSP - 07]</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
@@ -3868,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CE64E-D35A-4759-BDC4-0DC458C9D526}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
@@ -3882,12 +3790,11 @@
     <col min="4" max="4" width="36.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.36328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="17.1796875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="8" max="8" width="4.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3896,8 +3803,8 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G18,"Pass")</f>
-        <v>Pass: 0</v>
+        <f>"Pass: "&amp;COUNTIF(G5:G11,"Pass")</f>
+        <v>Pass: 7</v>
       </c>
       <c r="E1" s="8" t="e">
         <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
@@ -3906,7 +3813,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -3915,7 +3822,7 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G18,"Fail")</f>
+        <f>"Fail: "&amp;COUNTIF(G5:G11,"Fail")</f>
         <v>Fail: 0</v>
       </c>
       <c r="E2" s="8" t="e">
@@ -3925,7 +3832,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -3934,449 +3841,367 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$974)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$960)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$974))</f>
-        <v>Number of cases: 21</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$960))</f>
+        <v>Number of cases: 13</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="28.4" customHeight="1">
+    <row r="4" spans="1:8" ht="28.4" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="82.25" customHeight="1">
       <c r="A5" s="15" t="str">
         <f>"[GioHang - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[GioHang - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="82.25" customHeight="1">
+      <c r="A6" s="15" t="str">
+        <f t="shared" ref="A6:A17" si="0">"[GioHang - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
+        <v>[GioHang - 02]</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="82.25" customHeight="1">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 03]</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="82.25" customHeight="1">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 04]</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 05]</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 06]</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 07]</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 08]</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60">
+      <c r="A13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 09]</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="80">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 10]</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 11]</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="90">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 12]</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A6" s="15" t="str">
-        <f t="shared" ref="A6:A25" si="0">"[GioHang - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
-        <v>[GioHang - 02]</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="E16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="55" customHeight="1">
+      <c r="A17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[GioHang - 13]</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 03]</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 04]</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 05]</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 06]</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" s="28" customFormat="1" ht="82.25" customHeight="1">
-      <c r="A11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 07]</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="55" customHeight="1">
-      <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 08]</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 09]</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 10]</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50">
-      <c r="A15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 11]</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="50">
-      <c r="A16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 12]</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 13]</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
-      <c r="A18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 14]</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 15]</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 16]</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 17]</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 18]</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="80">
-      <c r="A23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 19]</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="80">
-      <c r="A24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 20]</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="90">
-      <c r="A25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[GioHang - 21]</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>186</v>
+      <c r="F17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4390,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED25E9-734E-4BB9-B6DD-ADDDAEBE5EA0}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4401,13 +4226,13 @@
     <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
     <col min="5" max="5" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4416,7 +4241,7 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="str">
-        <f>"Pass: "&amp;COUNTIF(G5:G17,"Pass")</f>
+        <f>"Pass: "&amp;COUNTIF(G5:G13,"Pass")</f>
         <v>Pass: 8</v>
       </c>
       <c r="E1" s="8" t="e">
@@ -4426,9 +4251,8 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4437,8 +4261,8 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="7" t="str">
-        <f>"Fail: "&amp;COUNTIF(G5:G17,"Fail")</f>
-        <v>Fail: 5</v>
+        <f>"Fail: "&amp;COUNTIF(G5:G13,"Fail")</f>
+        <v>Fail: 1</v>
       </c>
       <c r="E2" s="8" t="e">
         <f>"N/A: "&amp;COUNTIF(#REF!,"N/A")</f>
@@ -4447,9 +4271,8 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -4458,413 +4281,385 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$971)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$968)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$971))</f>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$968))</f>
         <v>Number of cases: 13</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+    </row>
+    <row r="4" spans="1:8" ht="36.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="210">
+    <row r="5" spans="1:8" ht="160">
       <c r="A5" s="15" t="str">
         <f>"[ThanhToan - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[ThanhToan - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="210">
+        <v>159</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="160">
       <c r="A6" s="15" t="str">
         <f t="shared" ref="A6:A17" si="0">"[ThanhToan - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[ThanhToan - 02]</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="160">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 03]</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 04]</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="210">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 05]</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="160">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 06]</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="160">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 07]</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="210">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 08]</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="160">
+      <c r="A13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 09]</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="160">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 10]</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="200">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 11]</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="160">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 12]</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="160">
+      <c r="A17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ThanhToan - 13]</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="210">
-      <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 03]</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="200">
-      <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 04]</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="210">
-      <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 05]</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="210">
-      <c r="A10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 06]</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="210">
-      <c r="A11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 07]</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="200">
-      <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 08]</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="200">
-      <c r="A13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 09]</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="210">
-      <c r="A14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 10]</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="210">
-      <c r="A15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 11]</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="210">
-      <c r="A16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 12]</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="210">
-      <c r="A17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ThanhToan - 13]</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="G17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
+        <v>169</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4878,10 +4673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8945F8-44BD-40EB-BEFA-56F152ECC625}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4892,9 +4687,10 @@
     <col min="4" max="4" width="35.36328125" customWidth="1"/>
     <col min="5" max="5" width="31.81640625" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4913,9 +4709,8 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="20">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4934,9 +4729,8 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="20">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -4955,259 +4749,247 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="40">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80">
+    <row r="5" spans="1:8" ht="80">
       <c r="A5" s="15" t="str">
         <f>"[ChangePassword - " &amp; TEXT(ROW(A1),"00") &amp; "]"</f>
         <v>[ChangePassword - 01]</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80">
+        <v>159</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80">
       <c r="A6" s="15" t="str">
         <f t="shared" ref="A6:A12" si="0">"[ChangePassword - " &amp; TEXT(ROW(A2),"00") &amp; "]"</f>
         <v>[ChangePassword - 02]</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 03]</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 04]</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15" t="s">
+      <c r="C8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="80">
+      <c r="A9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>[ChangePassword - 05]</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="80">
-      <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ChangePassword - 03]</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="80">
-      <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ChangePassword - 04]</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80">
-      <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>[ChangePassword - 05]</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="80">
+        <v>159</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="80">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ChangePassword - 06]</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="80">
+        <v>159</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ChangePassword - 07]</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="80">
+        <v>159</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="80">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>[ChangePassword - 08]</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="15" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
